--- a/Experiment/Experiment 50 repeticiones.xlsx
+++ b/Experiment/Experiment 50 repeticiones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel Sarasti\git\ProjectX\Experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastianmorales/Desktop/ProjectX/Experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAF0245-14FF-4029-AFF6-7CCD82CBCA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC81F29-9653-3642-9217-9C229B863772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Integrantes" sheetId="9" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="146">
   <si>
     <t>Tratamiento #1</t>
   </si>
@@ -162,9 +162,6 @@
   </si>
   <si>
     <t>Tratamiento #3 300 datos(datos)</t>
-  </si>
-  <si>
-    <t>Precision decision tree</t>
   </si>
   <si>
     <t>Library precision decision tree</t>
@@ -685,6 +682,15 @@
   </si>
   <si>
     <t>H1= La precision del arbol de decision en grandes cantidades entre el implementado por nosotros y la del arbol de decision de la libreria utilizada son diferentes</t>
+  </si>
+  <si>
+    <t>Tiempo de entrenamiento</t>
+  </si>
+  <si>
+    <t>Our precision decision tree</t>
+  </si>
+  <si>
+    <t>Our  precision decision tree</t>
   </si>
 </sst>
 </file>
@@ -1002,21 +1008,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="19" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -1038,11 +1029,26 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{8F4029F7-5C27-4F4A-B183-42146CC85AF4}"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1060,7 +1066,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3119,7 +3125,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E70069A-95E4-EA41-A6DC-650AAC554CD6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3147,15 +3153,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>219075</xdr:colOff>
+          <xdr:colOff>215900</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3219,7 +3225,7 @@
         <xdr:cNvPr id="2" name="Object 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02E64D6B-F70B-423C-A818-51072DAEA8FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3255,15 +3261,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>219075</xdr:colOff>
+          <xdr:colOff>215900</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3314,15 +3320,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>219075</xdr:colOff>
+          <xdr:colOff>215900</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3386,7 +3392,7 @@
         <xdr:cNvPr id="2" name="Object 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDEC1D37-FBDC-7B40-8133-374B8CADB4BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3435,7 +3441,7 @@
         <xdr:cNvPr id="2" name="Object 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FFBA6C3-73ED-7248-80B1-E8FD97C7913F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3664,45 +3670,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43282B43-687E-E14B-831B-4A487A019738}">
   <dimension ref="B1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="54"/>
+    <col min="1" max="16384" width="11.5" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" s="54" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="53" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" s="54" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="55" t="s">
+    <row r="1" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-    </row>
-    <row r="3" spans="2:4" s="54" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="55" t="s">
+    </row>
+    <row r="2" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-    </row>
-    <row r="4" spans="2:4" s="54" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="55" t="s">
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+    </row>
+    <row r="3" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-    </row>
-    <row r="5" spans="2:4" s="54" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="55" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+    </row>
+    <row r="4" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+    </row>
+    <row r="5" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3723,14 +3731,14 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3738,7 +3746,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -3750,7 +3758,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>0.80200000000000005</v>
       </c>
@@ -3768,7 +3776,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>0.81599999999999995</v>
       </c>
@@ -3776,7 +3784,7 @@
         <v>0.746</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -3788,7 +3796,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>0.79</v>
       </c>
@@ -3796,7 +3804,7 @@
         <v>0.76400000000000001</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -3808,7 +3816,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>0.75</v>
       </c>
@@ -3816,7 +3824,7 @@
         <v>0.78400000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>0.81399999999999995</v>
       </c>
@@ -3827,7 +3835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>0.75800000000000001</v>
       </c>
@@ -3835,7 +3843,7 @@
         <v>0.754</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0.77600000000000002</v>
       </c>
@@ -3846,7 +3854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>0.79</v>
       </c>
@@ -3869,7 +3877,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>0.79</v>
       </c>
@@ -3892,7 +3900,7 @@
         <v>3.8710857142857145E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>0.82</v>
       </c>
@@ -3915,7 +3923,7 @@
         <v>2.3098938775510241E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>0.8</v>
       </c>
@@ -3923,7 +3931,7 @@
         <v>0.77600000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>0.80200000000000005</v>
       </c>
@@ -3931,7 +3939,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>0.79600000000000004</v>
       </c>
@@ -3942,7 +3950,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>0.78200000000000003</v>
       </c>
@@ -3971,7 +3979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>0.80200000000000005</v>
       </c>
@@ -4000,7 +4008,7 @@
         <v>3.9381110780033723</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>0.77600000000000002</v>
       </c>
@@ -4023,7 +4031,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>0.79400000000000004</v>
       </c>
@@ -4038,7 +4046,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>0.75</v>
       </c>
@@ -4059,7 +4067,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>0.80200000000000005</v>
       </c>
@@ -4067,7 +4075,7 @@
         <v>0.746</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>0.80400000000000005</v>
       </c>
@@ -4085,7 +4093,7 @@
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>0.79400000000000004</v>
       </c>
@@ -4103,7 +4111,7 @@
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>0.81</v>
       </c>
@@ -4111,10 +4119,10 @@
         <v>0.752</v>
       </c>
       <c r="F23" s="34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G23" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H23" s="34"/>
       <c r="I23" s="34"/>
@@ -4123,7 +4131,7 @@
       <c r="L23" s="34"/>
       <c r="M23" s="13"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>0.75600000000000001</v>
       </c>
@@ -4137,7 +4145,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>0.79200000000000004</v>
       </c>
@@ -4145,7 +4153,7 @@
         <v>0.76200000000000001</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -4153,7 +4161,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>0.77</v>
       </c>
@@ -4161,7 +4169,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>0.82399999999999995</v>
       </c>
@@ -4169,7 +4177,7 @@
         <v>0.76600000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="20" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>0.79800000000000004</v>
       </c>
@@ -4177,7 +4185,7 @@
         <v>0.76600000000000001</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -4186,7 +4194,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>0.78400000000000003</v>
       </c>
@@ -4201,7 +4209,7 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>0.8</v>
       </c>
@@ -4221,7 +4229,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>0.81799999999999995</v>
       </c>
@@ -4241,10 +4249,10 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="N31" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>0.79200000000000004</v>
       </c>
@@ -4264,7 +4272,7 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>0.80400000000000005</v>
       </c>
@@ -4283,7 +4291,7 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>0.8</v>
       </c>
@@ -4303,7 +4311,7 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>0.82</v>
       </c>
@@ -4323,7 +4331,7 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>0.78</v>
       </c>
@@ -4338,7 +4346,7 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>0.77800000000000002</v>
       </c>
@@ -4353,20 +4361,20 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>0.78</v>
       </c>
       <c r="B38" s="1">
         <v>0.76</v>
       </c>
-      <c r="F38" s="48" t="s">
+      <c r="F38" s="43" t="s">
         <v>1</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H38" s="52" t="s">
+      <c r="H38" s="47" t="s">
         <v>32</v>
       </c>
       <c r="I38" s="1" t="s">
@@ -4378,7 +4386,7 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>0.80200000000000005</v>
       </c>
@@ -4410,7 +4418,7 @@
       </c>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>0.78400000000000003</v>
       </c>
@@ -4425,7 +4433,7 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>0.80400000000000005</v>
       </c>
@@ -4438,11 +4446,11 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>0.80200000000000005</v>
       </c>
@@ -4450,7 +4458,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>0.80800000000000005</v>
       </c>
@@ -4458,7 +4466,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>0.80400000000000005</v>
       </c>
@@ -4466,7 +4474,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>0.77600000000000002</v>
       </c>
@@ -4474,7 +4482,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>0.79600000000000004</v>
       </c>
@@ -4482,7 +4490,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>0.76200000000000001</v>
       </c>
@@ -4490,7 +4498,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>0.79600000000000004</v>
       </c>
@@ -4498,7 +4506,7 @@
         <v>0.74399999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>0.73199999999999998</v>
       </c>
@@ -4506,7 +4514,7 @@
         <v>0.77800000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>0.80400000000000005</v>
       </c>
@@ -4514,7 +4522,7 @@
         <v>0.77400000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>0.78800000000000003</v>
       </c>
@@ -4522,7 +4530,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B52"/>
     </row>
   </sheetData>
@@ -4538,15 +4546,15 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>219075</xdr:colOff>
+                <xdr:colOff>215900</xdr:colOff>
                 <xdr:row>32</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>25400</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>390525</xdr:colOff>
+                <xdr:colOff>393700</xdr:colOff>
                 <xdr:row>35</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>12700</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -4568,24 +4576,24 @@
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="s">
-        <v>51</v>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="45" t="s">
+        <v>50</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>0.76</v>
       </c>
@@ -4594,7 +4602,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>0.76</v>
       </c>
@@ -4602,10 +4610,10 @@
         <v>0.74</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>0.76</v>
       </c>
@@ -4613,10 +4621,10 @@
         <v>0.74</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>0.8</v>
       </c>
@@ -4624,7 +4632,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>0.74</v>
       </c>
@@ -4635,7 +4643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>0.73</v>
       </c>
@@ -4643,7 +4651,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0.78</v>
       </c>
@@ -4654,7 +4662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>0.72</v>
       </c>
@@ -4677,7 +4685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>0.75</v>
       </c>
@@ -4685,7 +4693,7 @@
         <v>0.74</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G10" s="3">
         <v>50</v>
@@ -4700,7 +4708,7 @@
         <v>8.6616326530612373E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>0.7</v>
       </c>
@@ -4708,7 +4716,7 @@
         <v>0.74</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G11" s="4">
         <v>50</v>
@@ -4723,7 +4731,7 @@
         <v>2.0124002684209485E-31</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>0.79</v>
       </c>
@@ -4731,7 +4739,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>0.76</v>
       </c>
@@ -4739,7 +4747,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>0.72</v>
       </c>
@@ -4750,7 +4758,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>0.75</v>
       </c>
@@ -4779,7 +4787,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>0.72</v>
       </c>
@@ -4808,7 +4816,7 @@
         <v>3.9381110780033723</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>0.71</v>
       </c>
@@ -4831,7 +4839,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>0.77</v>
       </c>
@@ -4846,7 +4854,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>0.71</v>
       </c>
@@ -4867,7 +4875,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>0.72</v>
       </c>
@@ -4875,7 +4883,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>0.68</v>
       </c>
@@ -4886,7 +4894,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>0.74</v>
       </c>
@@ -4897,7 +4905,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>0.77</v>
       </c>
@@ -4906,7 +4914,7 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>0.72</v>
       </c>
@@ -4914,7 +4922,7 @@
         <v>0.74</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G24" s="38"/>
       <c r="H24" s="38"/>
@@ -4923,7 +4931,7 @@
       <c r="K24" s="38"/>
       <c r="L24" s="38"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>0.73</v>
       </c>
@@ -4932,7 +4940,7 @@
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>0.73</v>
       </c>
@@ -4940,10 +4948,10 @@
         <v>0.74</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>0.75</v>
       </c>
@@ -4951,7 +4959,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>0.79</v>
       </c>
@@ -4959,7 +4967,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>0.79</v>
       </c>
@@ -4967,7 +4975,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>0.79</v>
       </c>
@@ -4975,7 +4983,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>0.73</v>
       </c>
@@ -4983,7 +4991,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>0.69</v>
       </c>
@@ -4991,7 +4999,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>0.79</v>
       </c>
@@ -4999,7 +5007,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>0.73</v>
       </c>
@@ -5007,7 +5015,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>0.76</v>
       </c>
@@ -5015,7 +5023,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>0.69</v>
       </c>
@@ -5023,7 +5031,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>0.76</v>
       </c>
@@ -5031,7 +5039,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>0.75</v>
       </c>
@@ -5039,7 +5047,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>0.73</v>
       </c>
@@ -5047,7 +5055,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>0.76</v>
       </c>
@@ -5055,7 +5063,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>0.79</v>
       </c>
@@ -5063,7 +5071,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>0.75</v>
       </c>
@@ -5071,7 +5079,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>0.75</v>
       </c>
@@ -5079,7 +5087,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>0.73</v>
       </c>
@@ -5087,7 +5095,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>0.71</v>
       </c>
@@ -5095,7 +5103,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>0.74</v>
       </c>
@@ -5103,7 +5111,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>0.74</v>
       </c>
@@ -5111,7 +5119,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>0.73</v>
       </c>
@@ -5119,7 +5127,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>0.76</v>
       </c>
@@ -5127,7 +5135,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>0.78</v>
       </c>
@@ -5135,7 +5143,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>0.72</v>
       </c>
@@ -5143,7 +5151,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
@@ -5160,28 +5168,28 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="s">
-        <v>51</v>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="45" t="s">
+        <v>50</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>0.80200000000000005</v>
       </c>
@@ -5189,10 +5197,10 @@
         <v>0.74</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>0.81599999999999995</v>
       </c>
@@ -5200,10 +5208,10 @@
         <v>0.74</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>0.79</v>
       </c>
@@ -5211,7 +5219,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>0.75</v>
       </c>
@@ -5219,7 +5227,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>0.81399999999999995</v>
       </c>
@@ -5230,7 +5238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>0.75800000000000001</v>
       </c>
@@ -5238,7 +5246,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0.77600000000000002</v>
       </c>
@@ -5249,7 +5257,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>0.79</v>
       </c>
@@ -5272,7 +5280,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>0.79</v>
       </c>
@@ -5280,7 +5288,7 @@
         <v>0.74</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" s="3">
         <v>50</v>
@@ -5295,7 +5303,7 @@
         <v>3.8710857142857145E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>0.82</v>
       </c>
@@ -5303,7 +5311,7 @@
         <v>0.74</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G11" s="4">
         <v>50</v>
@@ -5318,7 +5326,7 @@
         <v>2.0124002684209485E-31</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>0.8</v>
       </c>
@@ -5326,7 +5334,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>0.80200000000000005</v>
       </c>
@@ -5334,7 +5342,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>0.79600000000000004</v>
       </c>
@@ -5345,7 +5353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>0.78200000000000003</v>
       </c>
@@ -5374,7 +5382,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>0.80200000000000005</v>
       </c>
@@ -5403,7 +5411,7 @@
         <v>3.9381110780033723</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>0.77600000000000002</v>
       </c>
@@ -5426,7 +5434,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>0.79400000000000004</v>
       </c>
@@ -5441,7 +5449,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>0.75</v>
       </c>
@@ -5462,7 +5470,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>0.80200000000000005</v>
       </c>
@@ -5470,7 +5478,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>0.80400000000000005</v>
       </c>
@@ -5481,7 +5489,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>0.79400000000000004</v>
       </c>
@@ -5492,7 +5500,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>0.81</v>
       </c>
@@ -5500,7 +5508,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>0.75600000000000001</v>
       </c>
@@ -5508,10 +5516,10 @@
         <v>0.74</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H24" s="34"/>
       <c r="I24" s="34"/>
@@ -5519,7 +5527,7 @@
       <c r="K24" s="34"/>
       <c r="L24" s="34"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>0.79200000000000004</v>
       </c>
@@ -5527,7 +5535,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>0.77</v>
       </c>
@@ -5535,10 +5543,10 @@
         <v>0.74</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>0.82399999999999995</v>
       </c>
@@ -5546,7 +5554,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="20" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>0.79800000000000004</v>
       </c>
@@ -5554,7 +5562,7 @@
         <v>0.74</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -5567,7 +5575,7 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>0.78400000000000003</v>
       </c>
@@ -5586,7 +5594,7 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>0.8</v>
       </c>
@@ -5609,7 +5617,7 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>0.81799999999999995</v>
       </c>
@@ -5632,7 +5640,7 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>0.79200000000000004</v>
       </c>
@@ -5655,7 +5663,7 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>0.80400000000000005</v>
       </c>
@@ -5678,7 +5686,7 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>0.8</v>
       </c>
@@ -5702,7 +5710,7 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>0.82</v>
       </c>
@@ -5726,7 +5734,7 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
     </row>
-    <row r="36" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>0.78</v>
       </c>
@@ -5745,7 +5753,7 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>0.77800000000000002</v>
       </c>
@@ -5764,18 +5772,18 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>0.78</v>
       </c>
       <c r="B38" s="1">
         <v>0.74</v>
       </c>
-      <c r="F38" s="48" t="s">
-        <v>51</v>
+      <c r="F38" s="43" t="s">
+        <v>50</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>32</v>
@@ -5793,14 +5801,14 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>0.80200000000000005</v>
       </c>
       <c r="B39" s="1">
         <v>0.74</v>
       </c>
-      <c r="F39" s="48">
+      <c r="F39" s="43">
         <f>I10</f>
         <v>0.79144000000000014</v>
       </c>
@@ -5829,14 +5837,14 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>0.78400000000000003</v>
       </c>
       <c r="B40" s="1">
         <v>0.74</v>
       </c>
-      <c r="F40" s="48"/>
+      <c r="F40" s="43"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -5848,7 +5856,7 @@
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>0.80400000000000005</v>
       </c>
@@ -5861,7 +5869,7 @@
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L41" s="6"/>
       <c r="M41" s="1"/>
@@ -5869,7 +5877,7 @@
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>0.80200000000000005</v>
       </c>
@@ -5877,7 +5885,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>0.80800000000000005</v>
       </c>
@@ -5885,7 +5893,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>0.80400000000000005</v>
       </c>
@@ -5893,7 +5901,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>0.77600000000000002</v>
       </c>
@@ -5901,7 +5909,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>0.79600000000000004</v>
       </c>
@@ -5909,7 +5917,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>0.76200000000000001</v>
       </c>
@@ -5917,7 +5925,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>0.79600000000000004</v>
       </c>
@@ -5925,7 +5933,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>0.73199999999999998</v>
       </c>
@@ -5933,7 +5941,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>0.80400000000000005</v>
       </c>
@@ -5941,7 +5949,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>0.78800000000000003</v>
       </c>
@@ -5949,7 +5957,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B52" s="2"/>
     </row>
   </sheetData>
@@ -5966,23 +5974,23 @@
       <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>0.76600000000000001</v>
       </c>
@@ -5990,10 +5998,10 @@
         <v>0.7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>0.746</v>
       </c>
@@ -6001,10 +6009,10 @@
         <v>0.7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>0.76400000000000001</v>
       </c>
@@ -6012,7 +6020,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>0.78400000000000003</v>
       </c>
@@ -6020,7 +6028,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>0.73</v>
       </c>
@@ -6031,7 +6039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>0.754</v>
       </c>
@@ -6039,7 +6047,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0.78400000000000003</v>
       </c>
@@ -6050,7 +6058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>0.73399999999999999</v>
       </c>
@@ -6073,7 +6081,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>0.77400000000000002</v>
       </c>
@@ -6081,7 +6089,7 @@
         <v>0.7</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" s="3">
         <v>50</v>
@@ -6096,7 +6104,7 @@
         <v>2.3098938775510241E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>0.75800000000000001</v>
       </c>
@@ -6104,7 +6112,7 @@
         <v>0.7</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G11" s="4">
         <v>50</v>
@@ -6119,7 +6127,7 @@
         <v>1.2577501677630928E-32</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>0.77600000000000002</v>
       </c>
@@ -6127,7 +6135,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>0.76400000000000001</v>
       </c>
@@ -6135,7 +6143,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>0.80200000000000005</v>
       </c>
@@ -6146,7 +6154,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>0.73599999999999999</v>
       </c>
@@ -6175,7 +6183,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>0.77800000000000002</v>
       </c>
@@ -6204,7 +6212,7 @@
         <v>3.9381110780033723</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>0.74</v>
       </c>
@@ -6227,7 +6235,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>0.75</v>
       </c>
@@ -6242,7 +6250,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>0.76600000000000001</v>
       </c>
@@ -6263,7 +6271,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>0.746</v>
       </c>
@@ -6271,7 +6279,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>0.74199999999999999</v>
       </c>
@@ -6282,7 +6290,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>0.76600000000000001</v>
       </c>
@@ -6293,7 +6301,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>0.752</v>
       </c>
@@ -6301,7 +6309,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>0.76600000000000001</v>
       </c>
@@ -6309,10 +6317,10 @@
         <v>0.7</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H24" s="34"/>
       <c r="I24" s="34"/>
@@ -6320,7 +6328,7 @@
       <c r="K24" s="34"/>
       <c r="L24" s="34"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>0.76200000000000001</v>
       </c>
@@ -6328,7 +6336,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>0.76400000000000001</v>
       </c>
@@ -6336,10 +6344,10 @@
         <v>0.7</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>0.76600000000000001</v>
       </c>
@@ -6347,7 +6355,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="20" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>0.76600000000000001</v>
       </c>
@@ -6355,7 +6363,7 @@
         <v>0.7</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -6368,7 +6376,7 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>0.76600000000000001</v>
       </c>
@@ -6387,7 +6395,7 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>0.78</v>
       </c>
@@ -6410,7 +6418,7 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>0.746</v>
       </c>
@@ -6433,7 +6441,7 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>0.76800000000000002</v>
       </c>
@@ -6456,7 +6464,7 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>0.79</v>
       </c>
@@ -6479,7 +6487,7 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>0.74399999999999999</v>
       </c>
@@ -6503,7 +6511,7 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>0.77400000000000002</v>
       </c>
@@ -6527,7 +6535,7 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
     </row>
-    <row r="36" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>0.78</v>
       </c>
@@ -6546,7 +6554,7 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>0.76200000000000001</v>
       </c>
@@ -6565,7 +6573,7 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>0.76</v>
       </c>
@@ -6573,10 +6581,10 @@
         <v>0.7</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>32</v>
@@ -6594,7 +6602,7 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>0.75800000000000001</v>
       </c>
@@ -6630,7 +6638,7 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>0.754</v>
       </c>
@@ -6649,7 +6657,7 @@
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>0.78400000000000003</v>
       </c>
@@ -6670,7 +6678,7 @@
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>0.76800000000000002</v>
       </c>
@@ -6678,7 +6686,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>0.75600000000000001</v>
       </c>
@@ -6686,7 +6694,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>0.77</v>
       </c>
@@ -6694,7 +6702,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>0.76800000000000002</v>
       </c>
@@ -6702,7 +6710,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>0.75</v>
       </c>
@@ -6710,7 +6718,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>0.76</v>
       </c>
@@ -6718,7 +6726,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>0.74399999999999999</v>
       </c>
@@ -6726,7 +6734,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>0.77800000000000002</v>
       </c>
@@ -6734,7 +6742,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>0.77400000000000002</v>
       </c>
@@ -6742,7 +6750,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>0.75600000000000001</v>
       </c>
@@ -6750,7 +6758,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
@@ -6765,14 +6773,14 @@
   <dimension ref="B2:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="49" t="s">
-        <v>53</v>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="44" t="s">
+        <v>52</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -6785,7 +6793,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -6798,381 +6806,381 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="42" t="s">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B12" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="42" t="s">
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B17" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="42" t="s">
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B21" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B21" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B25" s="43" t="s">
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B25" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B28" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B28" s="43" t="s">
-        <v>142</v>
-      </c>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="44"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7192,109 +7200,109 @@
   <dimension ref="B2:S44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="18"/>
+    <col min="1" max="1" width="11.5" style="18"/>
     <col min="2" max="2" width="38" style="18" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="18"/>
+    <col min="3" max="16384" width="11.5" style="18"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-    </row>
-    <row r="5" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="40" t="s">
+    </row>
+    <row r="3" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-    </row>
-    <row r="6" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-    </row>
-    <row r="7" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="41" t="s">
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+    </row>
+    <row r="5" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-    </row>
-    <row r="8" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+    </row>
+    <row r="6" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+    </row>
+    <row r="7" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+    </row>
+    <row r="8" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="24"/>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
@@ -7314,7 +7322,7 @@
       <c r="R8" s="24"/>
       <c r="S8" s="24"/>
     </row>
-    <row r="9" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
@@ -7333,129 +7341,131 @@
       <c r="R9" s="23"/>
       <c r="S9" s="23"/>
     </row>
-    <row r="10" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="19"/>
-    </row>
-    <row r="12" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="20"/>
     </row>
-    <row r="23" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="21"/>
     </row>
-    <row r="26" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="20"/>
     </row>
-    <row r="30" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="21"/>
     </row>
     <row r="33" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="19"/>
     </row>
-    <row r="40" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B5:S6"/>
@@ -7474,55 +7484,55 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" style="18"/>
-    <col min="3" max="3" width="36.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.7109375" style="18" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="18"/>
+    <col min="1" max="2" width="11.5" style="18"/>
+    <col min="3" max="3" width="36.1640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.6640625" style="18" customWidth="1"/>
+    <col min="5" max="16384" width="11.5" style="18"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:4" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:4" ht="20" x14ac:dyDescent="0.15">
       <c r="C3" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="3:4" ht="20.25" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" ht="20" x14ac:dyDescent="0.15">
       <c r="C4" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:4" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:4" ht="42" x14ac:dyDescent="0.15">
       <c r="C5" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5" s="26">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="3:4" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:4" ht="20" x14ac:dyDescent="0.15">
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
     </row>
-    <row r="7" spans="3:4" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:4" ht="20" x14ac:dyDescent="0.15">
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
     </row>
-    <row r="8" spans="3:4" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:4" ht="20" x14ac:dyDescent="0.15">
       <c r="C8" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="3:4" ht="20.25" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" ht="20" x14ac:dyDescent="0.15">
       <c r="C9" s="26">
         <v>100</v>
       </c>
@@ -7530,7 +7540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:4" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:4" ht="20" x14ac:dyDescent="0.15">
       <c r="C10" s="26">
         <v>200</v>
       </c>
@@ -7538,7 +7548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="3:4" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:4" ht="20" x14ac:dyDescent="0.15">
       <c r="C11" s="26">
         <v>300</v>
       </c>
@@ -7559,37 +7569,37 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="18"/>
-    <col min="2" max="2" width="53.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="18"/>
+    <col min="2" max="2" width="53.33203125" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="18"/>
+    <col min="4" max="4" width="18.33203125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.5" style="18"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="20" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="20.25" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="20" x14ac:dyDescent="0.2">
       <c r="B4" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="30">
         <v>100</v>
@@ -7604,9 +7614,9 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="20" x14ac:dyDescent="0.2">
       <c r="B5" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="30">
         <v>200</v>
@@ -7621,9 +7631,9 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="20" x14ac:dyDescent="0.2">
       <c r="B6" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="30">
         <v>300</v>
@@ -7638,9 +7648,9 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" ht="20" x14ac:dyDescent="0.2">
       <c r="B7" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" s="30">
         <v>100</v>
@@ -7655,9 +7665,9 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="20" x14ac:dyDescent="0.2">
       <c r="B8" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="30">
         <v>200</v>
@@ -7672,9 +7682,9 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" ht="20" x14ac:dyDescent="0.2">
       <c r="B9" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" s="30">
         <v>300</v>
@@ -7702,1036 +7712,1036 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
+    <sheetView zoomScale="64" workbookViewId="0">
       <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="14.42578125" style="1"/>
+    <col min="1" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="42" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="42">
         <v>0.76</v>
       </c>
-      <c r="B2" s="47">
+      <c r="B2" s="42">
         <v>0.80200000000000005</v>
       </c>
-      <c r="C2" s="47">
+      <c r="C2" s="42">
         <v>0.76600000000000001</v>
       </c>
-      <c r="D2" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="E2" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="F2" s="47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47">
+      <c r="D2" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="E2" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="F2" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="42">
         <v>0.76</v>
       </c>
-      <c r="B3" s="47">
+      <c r="B3" s="42">
         <v>0.81599999999999995</v>
       </c>
-      <c r="C3" s="47">
+      <c r="C3" s="42">
         <v>0.746</v>
       </c>
-      <c r="D3" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="E3" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="F3" s="47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="47">
+      <c r="D3" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="E3" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="F3" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="42">
         <v>0.76</v>
       </c>
-      <c r="B4" s="47">
+      <c r="B4" s="42">
         <v>0.79</v>
       </c>
-      <c r="C4" s="47">
+      <c r="C4" s="42">
         <v>0.76400000000000001</v>
       </c>
-      <c r="D4" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="E4" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="F4" s="47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="47">
+      <c r="D4" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="E4" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="F4" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="42">
         <v>0.8</v>
       </c>
-      <c r="B5" s="47">
+      <c r="B5" s="42">
         <v>0.75</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="42">
         <v>0.78400000000000003</v>
       </c>
-      <c r="D5" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="E5" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="F5" s="47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="B6" s="47">
+      <c r="D5" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="E5" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="F5" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="B6" s="42">
         <v>0.81399999999999995</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="42">
         <v>0.73</v>
       </c>
-      <c r="D6" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="E6" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="F6" s="47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="47">
+      <c r="D6" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="E6" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="F6" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="42">
         <v>0.73</v>
       </c>
-      <c r="B7" s="47">
+      <c r="B7" s="42">
         <v>0.75800000000000001</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="42">
         <v>0.754</v>
       </c>
-      <c r="D7" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="E7" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="F7" s="47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="47">
+      <c r="D7" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="E7" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="F7" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="42">
         <v>0.78</v>
       </c>
-      <c r="B8" s="47">
+      <c r="B8" s="42">
         <v>0.77600000000000002</v>
       </c>
-      <c r="C8" s="47">
+      <c r="C8" s="42">
         <v>0.78400000000000003</v>
       </c>
-      <c r="D8" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="E8" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="F8" s="47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="47">
+      <c r="D8" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="E8" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="F8" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="42">
         <v>0.72</v>
       </c>
-      <c r="B9" s="47">
+      <c r="B9" s="42">
         <v>0.79</v>
       </c>
-      <c r="C9" s="47">
+      <c r="C9" s="42">
         <v>0.73399999999999999</v>
       </c>
-      <c r="D9" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="E9" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="F9" s="47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="47">
+      <c r="D9" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="E9" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="F9" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="42">
         <v>0.75</v>
       </c>
-      <c r="B10" s="47">
+      <c r="B10" s="42">
         <v>0.79</v>
       </c>
-      <c r="C10" s="47">
+      <c r="C10" s="42">
         <v>0.77400000000000002</v>
       </c>
-      <c r="D10" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="E10" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="F10" s="47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="47">
-        <v>0.7</v>
-      </c>
-      <c r="B11" s="47">
+      <c r="D10" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="E10" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="F10" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="42">
+        <v>0.7</v>
+      </c>
+      <c r="B11" s="42">
         <v>0.82</v>
       </c>
-      <c r="C11" s="47">
+      <c r="C11" s="42">
         <v>0.75800000000000001</v>
       </c>
-      <c r="D11" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="E11" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="F11" s="47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="47">
+      <c r="D11" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="E11" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="F11" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="42">
         <v>0.79</v>
       </c>
-      <c r="B12" s="47">
+      <c r="B12" s="42">
         <v>0.8</v>
       </c>
-      <c r="C12" s="47">
+      <c r="C12" s="42">
         <v>0.77600000000000002</v>
       </c>
-      <c r="D12" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="E12" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="F12" s="47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="47">
+      <c r="D12" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="E12" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="F12" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="42">
         <v>0.76</v>
       </c>
-      <c r="B13" s="47">
+      <c r="B13" s="42">
         <v>0.80200000000000005</v>
       </c>
-      <c r="C13" s="47">
+      <c r="C13" s="42">
         <v>0.76400000000000001</v>
       </c>
-      <c r="D13" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="E13" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="F13" s="47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="47">
+      <c r="D13" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="E13" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="F13" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="42">
         <v>0.72</v>
       </c>
-      <c r="B14" s="47">
+      <c r="B14" s="42">
         <v>0.79600000000000004</v>
       </c>
-      <c r="C14" s="47">
+      <c r="C14" s="42">
         <v>0.80200000000000005</v>
       </c>
-      <c r="D14" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="E14" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="F14" s="47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="47">
+      <c r="D14" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="E14" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="F14" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="42">
         <v>0.75</v>
       </c>
-      <c r="B15" s="47">
+      <c r="B15" s="42">
         <v>0.78200000000000003</v>
       </c>
-      <c r="C15" s="47">
+      <c r="C15" s="42">
         <v>0.73599999999999999</v>
       </c>
-      <c r="D15" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="E15" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="F15" s="47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="47">
+      <c r="D15" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="E15" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="F15" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="42">
         <v>0.72</v>
       </c>
-      <c r="B16" s="47">
+      <c r="B16" s="42">
         <v>0.80200000000000005</v>
       </c>
-      <c r="C16" s="47">
+      <c r="C16" s="42">
         <v>0.77800000000000002</v>
       </c>
-      <c r="D16" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="E16" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="F16" s="47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="47">
+      <c r="D16" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="E16" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="F16" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="42">
         <v>0.71</v>
       </c>
-      <c r="B17" s="47">
+      <c r="B17" s="42">
         <v>0.77600000000000002</v>
       </c>
-      <c r="C17" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="D17" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="E17" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="F17" s="47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="47">
+      <c r="C17" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="D17" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="E17" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="F17" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="42">
         <v>0.77</v>
       </c>
-      <c r="B18" s="47">
+      <c r="B18" s="42">
         <v>0.79400000000000004</v>
       </c>
-      <c r="C18" s="47">
+      <c r="C18" s="42">
         <v>0.75</v>
       </c>
-      <c r="D18" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="E18" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="F18" s="47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="47">
+      <c r="D18" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="E18" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="F18" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="42">
         <v>0.71</v>
       </c>
-      <c r="B19" s="47">
+      <c r="B19" s="42">
         <v>0.75</v>
       </c>
-      <c r="C19" s="47">
+      <c r="C19" s="42">
         <v>0.76600000000000001</v>
       </c>
-      <c r="D19" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="E19" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="F19" s="47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="47">
+      <c r="D19" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="E19" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="F19" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="42">
         <v>0.72</v>
       </c>
-      <c r="B20" s="47">
+      <c r="B20" s="42">
         <v>0.80200000000000005</v>
       </c>
-      <c r="C20" s="47">
+      <c r="C20" s="42">
         <v>0.746</v>
       </c>
-      <c r="D20" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="E20" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="F20" s="47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="47">
+      <c r="D20" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="E20" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="F20" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="42">
         <v>0.68</v>
       </c>
-      <c r="B21" s="47">
+      <c r="B21" s="42">
         <v>0.80400000000000005</v>
       </c>
-      <c r="C21" s="47">
+      <c r="C21" s="42">
         <v>0.74199999999999999</v>
       </c>
-      <c r="D21" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="E21" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="F21" s="47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="B22" s="47">
+      <c r="D21" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="E21" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="F21" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="B22" s="42">
         <v>0.79400000000000004</v>
       </c>
-      <c r="C22" s="47">
+      <c r="C22" s="42">
         <v>0.76600000000000001</v>
       </c>
-      <c r="D22" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="E22" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="F22" s="47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="47">
+      <c r="D22" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="E22" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="F22" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="42">
         <v>0.77</v>
       </c>
-      <c r="B23" s="47">
+      <c r="B23" s="42">
         <v>0.81</v>
       </c>
-      <c r="C23" s="47">
+      <c r="C23" s="42">
         <v>0.752</v>
       </c>
-      <c r="D23" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="E23" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="F23" s="47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="47">
+      <c r="D23" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="E23" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="F23" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="42">
         <v>0.72</v>
       </c>
-      <c r="B24" s="47">
+      <c r="B24" s="42">
         <v>0.75600000000000001</v>
       </c>
-      <c r="C24" s="47">
+      <c r="C24" s="42">
         <v>0.76600000000000001</v>
       </c>
-      <c r="D24" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="E24" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="F24" s="47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="47">
+      <c r="D24" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="E24" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="F24" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="42">
         <v>0.73</v>
       </c>
-      <c r="B25" s="47">
+      <c r="B25" s="42">
         <v>0.79200000000000004</v>
       </c>
-      <c r="C25" s="47">
+      <c r="C25" s="42">
         <v>0.76200000000000001</v>
       </c>
-      <c r="D25" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="E25" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="F25" s="47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="47">
+      <c r="D25" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="E25" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="F25" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="42">
         <v>0.73</v>
       </c>
-      <c r="B26" s="47">
+      <c r="B26" s="42">
         <v>0.77</v>
       </c>
-      <c r="C26" s="47">
+      <c r="C26" s="42">
         <v>0.76400000000000001</v>
       </c>
-      <c r="D26" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="E26" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="F26" s="47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="47">
+      <c r="D26" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="E26" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="F26" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="42">
         <v>0.75</v>
       </c>
-      <c r="B27" s="47">
+      <c r="B27" s="42">
         <v>0.82399999999999995</v>
       </c>
-      <c r="C27" s="47">
+      <c r="C27" s="42">
         <v>0.76600000000000001</v>
       </c>
-      <c r="D27" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="E27" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="F27" s="47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="47">
+      <c r="D27" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="E27" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="F27" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="42">
         <v>0.79</v>
       </c>
-      <c r="B28" s="47">
+      <c r="B28" s="42">
         <v>0.79800000000000004</v>
       </c>
-      <c r="C28" s="47">
+      <c r="C28" s="42">
         <v>0.76600000000000001</v>
       </c>
-      <c r="D28" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="E28" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="F28" s="47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="47">
+      <c r="D28" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="E28" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="F28" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="42">
         <v>0.79</v>
       </c>
-      <c r="B29" s="47">
+      <c r="B29" s="42">
         <v>0.78400000000000003</v>
       </c>
-      <c r="C29" s="47">
+      <c r="C29" s="42">
         <v>0.76600000000000001</v>
       </c>
-      <c r="D29" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="E29" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="F29" s="47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="47">
+      <c r="D29" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="E29" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="F29" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="42">
         <v>0.79</v>
       </c>
-      <c r="B30" s="47">
+      <c r="B30" s="42">
         <v>0.8</v>
       </c>
-      <c r="C30" s="47">
+      <c r="C30" s="42">
         <v>0.78</v>
       </c>
-      <c r="D30" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="E30" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="F30" s="47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="47">
+      <c r="D30" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="E30" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="F30" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="42">
         <v>0.73</v>
       </c>
-      <c r="B31" s="47">
+      <c r="B31" s="42">
         <v>0.81799999999999995</v>
       </c>
-      <c r="C31" s="47">
+      <c r="C31" s="42">
         <v>0.746</v>
       </c>
-      <c r="D31" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="E31" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="F31" s="47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="47">
+      <c r="D31" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="E31" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="F31" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="42">
         <v>0.69</v>
       </c>
-      <c r="B32" s="47">
+      <c r="B32" s="42">
         <v>0.79200000000000004</v>
       </c>
-      <c r="C32" s="47">
+      <c r="C32" s="42">
         <v>0.76800000000000002</v>
       </c>
-      <c r="D32" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="E32" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="F32" s="47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="47">
+      <c r="D32" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="E32" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="F32" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="42">
         <v>0.79</v>
       </c>
-      <c r="B33" s="47">
+      <c r="B33" s="42">
         <v>0.80400000000000005</v>
       </c>
-      <c r="C33" s="47">
+      <c r="C33" s="42">
         <v>0.79</v>
       </c>
-      <c r="D33" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="E33" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="F33" s="47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="47">
+      <c r="D33" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="E33" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="F33" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="42">
         <v>0.73</v>
       </c>
-      <c r="B34" s="47">
+      <c r="B34" s="42">
         <v>0.8</v>
       </c>
-      <c r="C34" s="47">
+      <c r="C34" s="42">
         <v>0.74399999999999999</v>
       </c>
-      <c r="D34" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="E34" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="F34" s="47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="47">
+      <c r="D34" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="E34" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="F34" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="42">
         <v>0.76</v>
       </c>
-      <c r="B35" s="47">
+      <c r="B35" s="42">
         <v>0.82</v>
       </c>
-      <c r="C35" s="47">
+      <c r="C35" s="42">
         <v>0.77400000000000002</v>
       </c>
-      <c r="D35" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="E35" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="F35" s="47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="47">
+      <c r="D35" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="E35" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="F35" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="42">
         <v>0.69</v>
       </c>
-      <c r="B36" s="47">
+      <c r="B36" s="42">
         <v>0.78</v>
       </c>
-      <c r="C36" s="47">
+      <c r="C36" s="42">
         <v>0.78</v>
       </c>
-      <c r="D36" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="E36" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="F36" s="47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="47">
+      <c r="D36" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="E36" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="F36" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="42">
         <v>0.76</v>
       </c>
-      <c r="B37" s="47">
+      <c r="B37" s="42">
         <v>0.77800000000000002</v>
       </c>
-      <c r="C37" s="47">
+      <c r="C37" s="42">
         <v>0.76200000000000001</v>
       </c>
-      <c r="D37" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="E37" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="F37" s="47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="47">
+      <c r="D37" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="E37" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="F37" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A38" s="42">
         <v>0.75</v>
       </c>
-      <c r="B38" s="47">
+      <c r="B38" s="42">
         <v>0.78</v>
       </c>
-      <c r="C38" s="47">
+      <c r="C38" s="42">
         <v>0.76</v>
       </c>
-      <c r="D38" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="E38" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="F38" s="47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="47">
+      <c r="D38" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="E38" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="F38" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A39" s="42">
         <v>0.73</v>
       </c>
-      <c r="B39" s="47">
+      <c r="B39" s="42">
         <v>0.80200000000000005</v>
       </c>
-      <c r="C39" s="47">
+      <c r="C39" s="42">
         <v>0.75800000000000001</v>
       </c>
-      <c r="D39" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="E39" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="F39" s="47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="47">
+      <c r="D39" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="E39" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="F39" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A40" s="42">
         <v>0.76</v>
       </c>
-      <c r="B40" s="47">
+      <c r="B40" s="42">
         <v>0.78400000000000003</v>
       </c>
-      <c r="C40" s="47">
+      <c r="C40" s="42">
         <v>0.754</v>
       </c>
-      <c r="D40" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="E40" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="F40" s="47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="47">
+      <c r="D40" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="E40" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="F40" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A41" s="42">
         <v>0.79</v>
       </c>
-      <c r="B41" s="47">
+      <c r="B41" s="42">
         <v>0.80400000000000005</v>
       </c>
-      <c r="C41" s="47">
+      <c r="C41" s="42">
         <v>0.78400000000000003</v>
       </c>
-      <c r="D41" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="E41" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="F41" s="47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="47">
+      <c r="D41" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="E41" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="F41" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A42" s="42">
         <v>0.75</v>
       </c>
-      <c r="B42" s="47">
+      <c r="B42" s="42">
         <v>0.80200000000000005</v>
       </c>
-      <c r="C42" s="47">
+      <c r="C42" s="42">
         <v>0.76800000000000002</v>
       </c>
-      <c r="D42" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="E42" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="F42" s="47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="47">
+      <c r="D42" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="E42" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="F42" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A43" s="42">
         <v>0.75</v>
       </c>
-      <c r="B43" s="47">
+      <c r="B43" s="42">
         <v>0.80800000000000005</v>
       </c>
-      <c r="C43" s="47">
+      <c r="C43" s="42">
         <v>0.75600000000000001</v>
       </c>
-      <c r="D43" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="E43" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="F43" s="47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="47">
+      <c r="D43" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="E43" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="F43" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A44" s="42">
         <v>0.73</v>
       </c>
-      <c r="B44" s="47">
+      <c r="B44" s="42">
         <v>0.80400000000000005</v>
       </c>
-      <c r="C44" s="47">
+      <c r="C44" s="42">
         <v>0.77</v>
       </c>
-      <c r="D44" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="E44" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="F44" s="47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="47">
+      <c r="D44" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="E44" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="F44" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A45" s="42">
         <v>0.71</v>
       </c>
-      <c r="B45" s="47">
+      <c r="B45" s="42">
         <v>0.77600000000000002</v>
       </c>
-      <c r="C45" s="47">
+      <c r="C45" s="42">
         <v>0.76800000000000002</v>
       </c>
-      <c r="D45" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="E45" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="F45" s="47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="B46" s="47">
+      <c r="D45" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="E45" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="F45" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A46" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="B46" s="42">
         <v>0.79600000000000004</v>
       </c>
-      <c r="C46" s="47">
+      <c r="C46" s="42">
         <v>0.75</v>
       </c>
-      <c r="D46" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="E46" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="F46" s="47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="B47" s="47">
+      <c r="D46" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="E46" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="F46" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A47" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="B47" s="42">
         <v>0.76200000000000001</v>
       </c>
-      <c r="C47" s="47">
+      <c r="C47" s="42">
         <v>0.76</v>
       </c>
-      <c r="D47" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="E47" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="F47" s="47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="47">
+      <c r="D47" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="E47" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="F47" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A48" s="42">
         <v>0.73</v>
       </c>
-      <c r="B48" s="47">
+      <c r="B48" s="42">
         <v>0.79600000000000004</v>
       </c>
-      <c r="C48" s="47">
+      <c r="C48" s="42">
         <v>0.74399999999999999</v>
       </c>
-      <c r="D48" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="E48" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="F48" s="47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="47">
+      <c r="D48" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="E48" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="F48" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A49" s="42">
         <v>0.76</v>
       </c>
-      <c r="B49" s="47">
+      <c r="B49" s="42">
         <v>0.73199999999999998</v>
       </c>
-      <c r="C49" s="47">
+      <c r="C49" s="42">
         <v>0.77800000000000002</v>
       </c>
-      <c r="D49" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="E49" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="F49" s="47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="47">
+      <c r="D49" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="E49" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="F49" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A50" s="42">
         <v>0.78</v>
       </c>
-      <c r="B50" s="47">
+      <c r="B50" s="42">
         <v>0.80400000000000005</v>
       </c>
-      <c r="C50" s="47">
+      <c r="C50" s="42">
         <v>0.77400000000000002</v>
       </c>
-      <c r="D50" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="E50" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="F50" s="47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="47">
+      <c r="D50" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="E50" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="F50" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A51" s="42">
         <v>0.72</v>
       </c>
-      <c r="B51" s="47">
+      <c r="B51" s="42">
         <v>0.78800000000000003</v>
       </c>
-      <c r="C51" s="47">
+      <c r="C51" s="42">
         <v>0.75600000000000001</v>
       </c>
-      <c r="D51" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="E51" s="47">
-        <v>0.74</v>
-      </c>
-      <c r="F51" s="47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D51" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="E51" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="F51" s="42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="39">
         <f t="shared" ref="A52:F52" si="0">AVERAGE(A2:A51)</f>
         <v>0.74460000000000004</v>
@@ -8767,48 +8777,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E456D10F-6342-A94B-9D8E-58B043617C19}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="75" workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="D1" s="45" t="s">
+      <c r="B1" s="40"/>
+      <c r="D1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="G1" s="45" t="s">
+      <c r="E1" s="40"/>
+      <c r="G1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="J1" s="45" t="s">
+      <c r="H1" s="40"/>
+      <c r="J1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="45"/>
-      <c r="M1" s="45" t="s">
+      <c r="K1" s="40"/>
+      <c r="M1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="45"/>
-      <c r="P1" s="45" t="s">
+      <c r="N1" s="40"/>
+      <c r="P1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="45"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q1" s="40"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="D2" s="3"/>
@@ -8822,425 +8832,425 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" s="3">
         <v>0.74460000000000004</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E3" s="3">
         <v>0.79144000000000014</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H3" s="3">
         <v>0.76252000000000009</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K3" s="3">
         <v>0.73999999999999955</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N3" s="3">
         <v>0.73999999999999955</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q3" s="3">
         <v>0.69999999999999984</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4" s="3">
         <v>4.1621226923437126E-3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E4" s="3">
         <v>2.7824757732227302E-3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H4" s="3">
         <v>2.1493691528218341E-3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K4" s="3">
         <v>6.3441315692866085E-17</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N4" s="3">
         <v>6.3441315692866085E-17</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="3">
         <v>1.5860328923216521E-17</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" s="3">
         <v>0.745</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E5" s="3">
         <v>0.79600000000000004</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H5" s="3">
         <v>0.76400000000000001</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0.74</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0.74</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="B6" s="3">
         <v>0.76</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E6" s="3">
         <v>0.80200000000000005</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H6" s="3">
         <v>0.76600000000000001</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0.74</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0.74</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="B7" s="3">
         <v>2.9430651798866496E-2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E7" s="3">
         <v>1.9675074877330747E-2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H7" s="3">
         <v>1.5198335032335036E-2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K7" s="3">
         <v>4.4859784533822148E-16</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N7" s="3">
         <v>4.4859784533822148E-16</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q7" s="3">
         <v>1.1214946133455537E-16</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="3">
         <v>8.6616326530612373E-4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E8" s="3">
         <v>3.8710857142857145E-4</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H8" s="3">
         <v>2.3098938775510241E-4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K8" s="3">
         <v>2.0124002684209485E-31</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N8" s="3">
         <v>2.0124002684209485E-31</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="3">
         <v>1.2577501677630928E-32</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9" s="3">
         <v>-0.56863231968756445</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E9" s="3">
         <v>0.87267651916115252</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H9" s="3">
         <v>-4.7030990764242553E-2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K9" s="3">
         <v>-2.085106382978724</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N9" s="3">
         <v>-2.085106382978724</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q9" s="3">
         <v>-2.085106382978724</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B10" s="3">
         <v>-3.2995869907914137E-2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E10" s="3">
         <v>-0.92459828155680679</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H10" s="3">
         <v>5.2658830319961776E-2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K10" s="3">
         <v>1.0311973892303805</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N10" s="3">
         <v>1.0311973892303805</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q10" s="3">
         <v>1.0311973892303805</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B11" s="3">
         <v>0.12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E11" s="3">
         <v>9.1999999999999971E-2</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H11" s="3">
         <v>7.2000000000000064E-2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K11" s="3">
         <v>0</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N11" s="3">
         <v>0</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q11" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B12" s="3">
         <v>0.68</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E12" s="3">
         <v>0.73199999999999998</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H12" s="3">
         <v>0.73</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0.74</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0.74</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="B13" s="3">
         <v>0.8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E13" s="3">
         <v>0.82399999999999995</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H13" s="3">
         <v>0.80200000000000005</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K13" s="3">
         <v>0.74</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N13" s="3">
         <v>0.74</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q13" s="3">
         <v>0.7</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -9278,7 +9288,7 @@
         <v>34.999999999999993</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -9316,39 +9326,39 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="46" t="s">
-        <v>126</v>
+    <row r="16" spans="1:17" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="41" t="s">
+        <v>125</v>
       </c>
       <c r="B16" s="4">
         <v>8.3640986964276017E-3</v>
       </c>
-      <c r="D16" s="46" t="s">
-        <v>126</v>
+      <c r="D16" s="41" t="s">
+        <v>125</v>
       </c>
       <c r="E16" s="4">
         <v>5.5915944117804301E-3</v>
       </c>
-      <c r="G16" s="46" t="s">
-        <v>126</v>
+      <c r="G16" s="41" t="s">
+        <v>125</v>
       </c>
       <c r="H16" s="4">
         <v>4.3193190249602087E-3</v>
       </c>
-      <c r="J16" s="46" t="s">
-        <v>126</v>
+      <c r="J16" s="41" t="s">
+        <v>125</v>
       </c>
       <c r="K16" s="4">
         <v>1.2749009702728226E-16</v>
       </c>
-      <c r="M16" s="46" t="s">
-        <v>126</v>
+      <c r="M16" s="41" t="s">
+        <v>125</v>
       </c>
       <c r="N16" s="4">
         <v>1.2749009702728226E-16</v>
       </c>
-      <c r="P16" s="46" t="s">
-        <v>126</v>
+      <c r="P16" s="41" t="s">
+        <v>125</v>
       </c>
       <c r="Q16" s="4">
         <v>3.1872524256820565E-17</v>
@@ -9363,26 +9373,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7CACF5-72B5-3F4E-9E2A-F5791004C35D}">
   <dimension ref="A1:S151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A4" zoomScale="91" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5" customWidth="1"/>
+    <col min="7" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>0.76</v>
       </c>
@@ -9390,7 +9403,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>0.76</v>
       </c>
@@ -9398,14 +9411,14 @@
         <v>0.74</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>0.76</v>
       </c>
@@ -9413,14 +9426,14 @@
         <v>0.74</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>0.8</v>
       </c>
@@ -9430,7 +9443,7 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>0.74</v>
       </c>
@@ -9443,7 +9456,7 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>0.73</v>
       </c>
@@ -9453,7 +9466,7 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0.78</v>
       </c>
@@ -9464,13 +9477,13 @@
         <v>7</v>
       </c>
       <c r="R8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="S8" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>0.72</v>
       </c>
@@ -9493,13 +9506,13 @@
         <v>12</v>
       </c>
       <c r="R9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="S9" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>0.75</v>
       </c>
@@ -9507,7 +9520,7 @@
         <v>0.74</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>39</v>
+        <v>144</v>
       </c>
       <c r="G10" s="3">
         <v>150</v>
@@ -9522,7 +9535,7 @@
         <v>8.6299847874720444E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>0.7</v>
       </c>
@@ -9530,7 +9543,7 @@
         <v>0.74</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="4">
         <v>150</v>
@@ -9545,7 +9558,7 @@
         <v>3.5794183445190245E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>0.79</v>
       </c>
@@ -9553,7 +9566,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>0.76</v>
       </c>
@@ -9561,7 +9574,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>0.72</v>
       </c>
@@ -9572,7 +9585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>0.75</v>
       </c>
@@ -9601,7 +9614,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>0.72</v>
       </c>
@@ -9630,7 +9643,7 @@
         <v>3.8728528114631668</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>0.71</v>
       </c>
@@ -9653,7 +9666,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>0.77</v>
       </c>
@@ -9668,7 +9681,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>0.71</v>
       </c>
@@ -9689,7 +9702,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>0.72</v>
       </c>
@@ -9697,7 +9710,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>0.68</v>
       </c>
@@ -9709,7 +9722,7 @@
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>0.74</v>
       </c>
@@ -9721,7 +9734,7 @@
       </c>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>0.77</v>
       </c>
@@ -9729,7 +9742,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>0.72</v>
       </c>
@@ -9737,10 +9750,10 @@
         <v>0.74</v>
       </c>
       <c r="F24" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="32" t="s">
         <v>48</v>
-      </c>
-      <c r="G24" s="32" t="s">
-        <v>49</v>
       </c>
       <c r="H24" s="33"/>
       <c r="I24" s="33"/>
@@ -9748,7 +9761,7 @@
       <c r="K24" s="33"/>
       <c r="L24" s="33"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>0.73</v>
       </c>
@@ -9756,7 +9769,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>0.73</v>
       </c>
@@ -9764,10 +9777,10 @@
         <v>0.74</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>0.75</v>
       </c>
@@ -9775,7 +9788,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="20" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>0.79</v>
       </c>
@@ -9783,7 +9796,7 @@
         <v>0.74</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -9792,7 +9805,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>0.79</v>
       </c>
@@ -9807,7 +9820,7 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>0.79</v>
       </c>
@@ -9827,7 +9840,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>0.73</v>
       </c>
@@ -9847,7 +9860,7 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>0.69</v>
       </c>
@@ -9867,7 +9880,7 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>0.79</v>
       </c>
@@ -9886,7 +9899,7 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>0.73</v>
       </c>
@@ -9906,7 +9919,7 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>0.76</v>
       </c>
@@ -9926,7 +9939,7 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>0.69</v>
       </c>
@@ -9941,7 +9954,7 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>0.76</v>
       </c>
@@ -9956,7 +9969,7 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>0.75</v>
       </c>
@@ -9964,10 +9977,10 @@
         <v>0.74</v>
       </c>
       <c r="F38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>32</v>
@@ -9981,7 +9994,7 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>0.73</v>
       </c>
@@ -10013,7 +10026,7 @@
       </c>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>0.76</v>
       </c>
@@ -10028,7 +10041,7 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>0.79</v>
       </c>
@@ -10041,11 +10054,11 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>0.75</v>
       </c>
@@ -10053,7 +10066,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>0.75</v>
       </c>
@@ -10061,7 +10074,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>0.73</v>
       </c>
@@ -10069,7 +10082,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>0.71</v>
       </c>
@@ -10077,7 +10090,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>0.74</v>
       </c>
@@ -10085,7 +10098,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>0.74</v>
       </c>
@@ -10093,7 +10106,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>0.73</v>
       </c>
@@ -10101,7 +10114,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>0.76</v>
       </c>
@@ -10109,7 +10122,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>0.78</v>
       </c>
@@ -10117,7 +10130,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>0.72</v>
       </c>
@@ -10125,7 +10138,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>0.80200000000000005</v>
       </c>
@@ -10133,7 +10146,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>0.81599999999999995</v>
       </c>
@@ -10141,7 +10154,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>0.79</v>
       </c>
@@ -10149,7 +10162,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>0.75</v>
       </c>
@@ -10157,7 +10170,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>0.81399999999999995</v>
       </c>
@@ -10165,7 +10178,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>0.75800000000000001</v>
       </c>
@@ -10173,7 +10186,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>0.77600000000000002</v>
       </c>
@@ -10181,7 +10194,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>0.79</v>
       </c>
@@ -10189,7 +10202,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>0.79</v>
       </c>
@@ -10197,7 +10210,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>0.82</v>
       </c>
@@ -10205,7 +10218,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>0.8</v>
       </c>
@@ -10213,7 +10226,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>0.80200000000000005</v>
       </c>
@@ -10221,7 +10234,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>0.79600000000000004</v>
       </c>
@@ -10229,7 +10242,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>0.78200000000000003</v>
       </c>
@@ -10237,7 +10250,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>0.80200000000000005</v>
       </c>
@@ -10245,7 +10258,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>0.77600000000000002</v>
       </c>
@@ -10253,7 +10266,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>0.79400000000000004</v>
       </c>
@@ -10261,7 +10274,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>0.75</v>
       </c>
@@ -10269,7 +10282,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>0.80200000000000005</v>
       </c>
@@ -10277,7 +10290,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>0.80400000000000005</v>
       </c>
@@ -10285,7 +10298,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>0.79400000000000004</v>
       </c>
@@ -10293,7 +10306,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>0.81</v>
       </c>
@@ -10301,7 +10314,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>0.75600000000000001</v>
       </c>
@@ -10309,7 +10322,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>0.79200000000000004</v>
       </c>
@@ -10317,7 +10330,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>0.77</v>
       </c>
@@ -10325,7 +10338,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>0.82399999999999995</v>
       </c>
@@ -10333,7 +10346,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>0.79800000000000004</v>
       </c>
@@ -10341,7 +10354,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>0.78400000000000003</v>
       </c>
@@ -10349,7 +10362,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>0.8</v>
       </c>
@@ -10357,7 +10370,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>0.81799999999999995</v>
       </c>
@@ -10365,7 +10378,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>0.79200000000000004</v>
       </c>
@@ -10373,7 +10386,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <v>0.80400000000000005</v>
       </c>
@@ -10381,7 +10394,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <v>0.8</v>
       </c>
@@ -10389,7 +10402,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <v>0.82</v>
       </c>
@@ -10397,7 +10410,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
         <v>0.78</v>
       </c>
@@ -10405,7 +10418,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>0.77800000000000002</v>
       </c>
@@ -10413,7 +10426,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
         <v>0.78</v>
       </c>
@@ -10421,7 +10434,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>0.80200000000000005</v>
       </c>
@@ -10429,7 +10442,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <v>0.78400000000000003</v>
       </c>
@@ -10437,7 +10450,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <v>0.80400000000000005</v>
       </c>
@@ -10445,7 +10458,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <v>0.80200000000000005</v>
       </c>
@@ -10453,7 +10466,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <v>0.80800000000000005</v>
       </c>
@@ -10461,7 +10474,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <v>0.80400000000000005</v>
       </c>
@@ -10469,7 +10482,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>0.77600000000000002</v>
       </c>
@@ -10477,7 +10490,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>0.79600000000000004</v>
       </c>
@@ -10485,7 +10498,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
         <v>0.76200000000000001</v>
       </c>
@@ -10493,7 +10506,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
         <v>0.79600000000000004</v>
       </c>
@@ -10501,7 +10514,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <v>0.73199999999999998</v>
       </c>
@@ -10509,7 +10522,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
         <v>0.80400000000000005</v>
       </c>
@@ -10517,7 +10530,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <v>0.78800000000000003</v>
       </c>
@@ -10525,7 +10538,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
         <v>0.76600000000000001</v>
       </c>
@@ -10533,7 +10546,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
         <v>0.746</v>
       </c>
@@ -10541,7 +10554,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
         <v>0.76400000000000001</v>
       </c>
@@ -10549,7 +10562,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <v>0.78400000000000003</v>
       </c>
@@ -10557,7 +10570,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
         <v>0.73</v>
       </c>
@@ -10565,7 +10578,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
         <v>0.754</v>
       </c>
@@ -10573,7 +10586,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
         <v>0.78400000000000003</v>
       </c>
@@ -10581,7 +10594,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
         <v>0.73399999999999999</v>
       </c>
@@ -10589,7 +10602,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
         <v>0.77400000000000002</v>
       </c>
@@ -10597,7 +10610,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
         <v>0.75800000000000001</v>
       </c>
@@ -10605,7 +10618,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
         <v>0.77600000000000002</v>
       </c>
@@ -10613,7 +10626,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
         <v>0.76400000000000001</v>
       </c>
@@ -10621,7 +10634,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
         <v>0.80200000000000005</v>
       </c>
@@ -10629,7 +10642,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
         <v>0.73599999999999999</v>
       </c>
@@ -10637,7 +10650,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
         <v>0.77800000000000002</v>
       </c>
@@ -10645,7 +10658,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
         <v>0.74</v>
       </c>
@@ -10653,7 +10666,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
         <v>0.75</v>
       </c>
@@ -10661,7 +10674,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
         <v>0.76600000000000001</v>
       </c>
@@ -10669,7 +10682,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
         <v>0.746</v>
       </c>
@@ -10677,7 +10690,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
         <v>0.74199999999999999</v>
       </c>
@@ -10685,7 +10698,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
         <v>0.76600000000000001</v>
       </c>
@@ -10693,7 +10706,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
         <v>0.752</v>
       </c>
@@ -10701,7 +10714,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
         <v>0.76600000000000001</v>
       </c>
@@ -10709,7 +10722,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
         <v>0.76200000000000001</v>
       </c>
@@ -10717,7 +10730,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
         <v>0.76400000000000001</v>
       </c>
@@ -10725,7 +10738,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
         <v>0.76600000000000001</v>
       </c>
@@ -10733,7 +10746,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
         <v>0.76600000000000001</v>
       </c>
@@ -10741,7 +10754,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
         <v>0.76600000000000001</v>
       </c>
@@ -10749,7 +10762,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130" s="1">
         <v>0.78</v>
       </c>
@@ -10757,7 +10770,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" s="1">
         <v>0.746</v>
       </c>
@@ -10765,7 +10778,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132" s="1">
         <v>0.76800000000000002</v>
       </c>
@@ -10773,7 +10786,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
         <v>0.79</v>
       </c>
@@ -10781,7 +10794,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134" s="1">
         <v>0.74399999999999999</v>
       </c>
@@ -10789,7 +10802,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135" s="1">
         <v>0.77400000000000002</v>
       </c>
@@ -10797,7 +10810,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136" s="1">
         <v>0.78</v>
       </c>
@@ -10805,7 +10818,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" s="1">
         <v>0.76200000000000001</v>
       </c>
@@ -10813,7 +10826,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138" s="1">
         <v>0.76</v>
       </c>
@@ -10821,7 +10834,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139" s="1">
         <v>0.75800000000000001</v>
       </c>
@@ -10829,7 +10842,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140" s="1">
         <v>0.754</v>
       </c>
@@ -10837,7 +10850,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A141" s="1">
         <v>0.78400000000000003</v>
       </c>
@@ -10845,7 +10858,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142" s="1">
         <v>0.76800000000000002</v>
       </c>
@@ -10853,7 +10866,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143" s="1">
         <v>0.75600000000000001</v>
       </c>
@@ -10861,7 +10874,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144" s="1">
         <v>0.77</v>
       </c>
@@ -10869,7 +10882,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A145" s="1">
         <v>0.76800000000000002</v>
       </c>
@@ -10877,7 +10890,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A146" s="1">
         <v>0.75</v>
       </c>
@@ -10885,7 +10898,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A147" s="1">
         <v>0.76</v>
       </c>
@@ -10893,7 +10906,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148" s="1">
         <v>0.74399999999999999</v>
       </c>
@@ -10901,7 +10914,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A149" s="1">
         <v>0.77800000000000002</v>
       </c>
@@ -10909,7 +10922,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A150" s="1">
         <v>0.77400000000000002</v>
       </c>
@@ -10917,7 +10930,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A151" s="1">
         <v>0.75600000000000001</v>
       </c>
@@ -10937,15 +10950,15 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>219075</xdr:colOff>
+                <xdr:colOff>215900</xdr:colOff>
                 <xdr:row>32</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>25400</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>390525</xdr:colOff>
+                <xdr:colOff>393700</xdr:colOff>
                 <xdr:row>35</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>12700</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -10967,14 +10980,14 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10982,10 +10995,10 @@
         <v>2</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>0.76</v>
       </c>
@@ -10993,7 +11006,7 @@
         <v>0.76600000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>0.76</v>
       </c>
@@ -11001,10 +11014,10 @@
         <v>0.746</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>0.76</v>
       </c>
@@ -11012,10 +11025,10 @@
         <v>0.76400000000000001</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>0.8</v>
       </c>
@@ -11023,7 +11036,7 @@
         <v>0.78400000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>0.74</v>
       </c>
@@ -11034,7 +11047,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>0.73</v>
       </c>
@@ -11042,7 +11055,7 @@
         <v>0.754</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0.78</v>
       </c>
@@ -11053,7 +11066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>0.72</v>
       </c>
@@ -11076,7 +11089,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>0.75</v>
       </c>
@@ -11099,7 +11112,7 @@
         <v>8.6616326530612373E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>0.7</v>
       </c>
@@ -11122,7 +11135,7 @@
         <v>2.3098938775510241E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>0.79</v>
       </c>
@@ -11130,7 +11143,7 @@
         <v>0.77600000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>0.76</v>
       </c>
@@ -11138,7 +11151,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>0.72</v>
       </c>
@@ -11149,7 +11162,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>0.75</v>
       </c>
@@ -11178,7 +11191,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>0.72</v>
       </c>
@@ -11207,7 +11220,7 @@
         <v>3.9381110780033723</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>0.71</v>
       </c>
@@ -11230,7 +11243,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>0.77</v>
       </c>
@@ -11245,7 +11258,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>0.71</v>
       </c>
@@ -11266,7 +11279,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>0.72</v>
       </c>
@@ -11274,7 +11287,7 @@
         <v>0.746</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>0.68</v>
       </c>
@@ -11282,7 +11295,7 @@
         <v>0.74199999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>0.74</v>
       </c>
@@ -11299,7 +11312,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>0.77</v>
       </c>
@@ -11316,7 +11329,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>0.72</v>
       </c>
@@ -11324,10 +11337,10 @@
         <v>0.76600000000000001</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G24" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H24" s="33"/>
       <c r="I24" s="33"/>
@@ -11335,7 +11348,7 @@
       <c r="K24" s="33"/>
       <c r="L24" s="33"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>0.73</v>
       </c>
@@ -11355,7 +11368,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>0.73</v>
       </c>
@@ -11363,7 +11376,7 @@
         <v>0.76400000000000001</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -11377,7 +11390,7 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>0.75</v>
       </c>
@@ -11390,7 +11403,7 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>0.79</v>
       </c>
@@ -11398,7 +11411,7 @@
         <v>0.76600000000000001</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -11412,7 +11425,7 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>0.79</v>
       </c>
@@ -11432,7 +11445,7 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>0.79</v>
       </c>
@@ -11456,7 +11469,7 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>0.73</v>
       </c>
@@ -11480,7 +11493,7 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>0.69</v>
       </c>
@@ -11504,7 +11517,7 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
     </row>
-    <row r="33" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>0.79</v>
       </c>
@@ -11529,7 +11542,7 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>0.73</v>
       </c>
@@ -11555,7 +11568,7 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>0.76</v>
       </c>
@@ -11581,7 +11594,7 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>0.69</v>
       </c>
@@ -11602,7 +11615,7 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>0.76</v>
       </c>
@@ -11623,7 +11636,7 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>0.75</v>
       </c>
@@ -11631,7 +11644,7 @@
         <v>0.76</v>
       </c>
       <c r="E38" s="13"/>
-      <c r="F38" s="48" t="s">
+      <c r="F38" s="43" t="s">
         <v>0</v>
       </c>
       <c r="G38" s="6" t="s">
@@ -11654,7 +11667,7 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>0.73</v>
       </c>
@@ -11662,7 +11675,7 @@
         <v>0.75800000000000001</v>
       </c>
       <c r="E39" s="13"/>
-      <c r="F39" s="48">
+      <c r="F39" s="43">
         <f>I10</f>
         <v>0.74460000000000004</v>
       </c>
@@ -11692,14 +11705,14 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
     </row>
-    <row r="40" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>0.76</v>
       </c>
       <c r="B40" s="1">
         <v>0.754</v>
       </c>
-      <c r="F40" s="48"/>
+      <c r="F40" s="43"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -11712,7 +11725,7 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
     </row>
-    <row r="41" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>0.79</v>
       </c>
@@ -11734,7 +11747,7 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>0.75</v>
       </c>
@@ -11743,7 +11756,7 @@
       </c>
       <c r="Q42" s="1"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>0.75</v>
       </c>
@@ -11752,7 +11765,7 @@
       </c>
       <c r="Q43" s="1"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>0.73</v>
       </c>
@@ -11761,7 +11774,7 @@
       </c>
       <c r="Q44" s="1"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>0.71</v>
       </c>
@@ -11770,7 +11783,7 @@
       </c>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>0.74</v>
       </c>
@@ -11779,7 +11792,7 @@
       </c>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>0.74</v>
       </c>
@@ -11788,7 +11801,7 @@
       </c>
       <c r="Q47" s="1"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>0.73</v>
       </c>
@@ -11797,7 +11810,7 @@
       </c>
       <c r="Q48" s="1"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>0.76</v>
       </c>
@@ -11805,7 +11818,7 @@
         <v>0.77800000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>0.78</v>
       </c>
@@ -11813,7 +11826,7 @@
         <v>0.77400000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>0.72</v>
       </c>
@@ -11835,14 +11848,14 @@
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11850,10 +11863,10 @@
         <v>1</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>0.76</v>
       </c>
@@ -11862,7 +11875,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>0.76</v>
       </c>
@@ -11871,7 +11884,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>0.76</v>
       </c>
@@ -11879,10 +11892,10 @@
         <v>0.79</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>0.8</v>
       </c>
@@ -11890,10 +11903,10 @@
         <v>0.75</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>0.74</v>
       </c>
@@ -11904,7 +11917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>0.73</v>
       </c>
@@ -11912,7 +11925,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0.78</v>
       </c>
@@ -11923,7 +11936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>0.72</v>
       </c>
@@ -11946,7 +11959,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>0.75</v>
       </c>
@@ -11970,7 +11983,7 @@
       </c>
       <c r="M10" s="13"/>
     </row>
-    <row r="11" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>0.7</v>
       </c>
@@ -11994,7 +12007,7 @@
       </c>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>0.79</v>
       </c>
@@ -12003,7 +12016,7 @@
       </c>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>0.76</v>
       </c>
@@ -12012,7 +12025,7 @@
       </c>
       <c r="M13" s="13"/>
     </row>
-    <row r="14" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>0.72</v>
       </c>
@@ -12024,7 +12037,7 @@
       </c>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>0.75</v>
       </c>
@@ -12054,7 +12067,7 @@
       </c>
       <c r="M15" s="13"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>0.72</v>
       </c>
@@ -12084,7 +12097,7 @@
       </c>
       <c r="M16" s="13"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>0.71</v>
       </c>
@@ -12108,7 +12121,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="13"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>0.77</v>
       </c>
@@ -12124,7 +12137,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="13"/>
     </row>
-    <row r="19" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>0.71</v>
       </c>
@@ -12146,7 +12159,7 @@
       <c r="L19" s="4"/>
       <c r="M19" s="13"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>0.72</v>
       </c>
@@ -12162,7 +12175,7 @@
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>0.68</v>
       </c>
@@ -12180,7 +12193,7 @@
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>0.74</v>
       </c>
@@ -12198,7 +12211,7 @@
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>0.77</v>
       </c>
@@ -12214,7 +12227,7 @@
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>0.72</v>
       </c>
@@ -12222,10 +12235,10 @@
         <v>0.75600000000000001</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H24" s="34"/>
       <c r="I24" s="34"/>
@@ -12233,7 +12246,7 @@
       <c r="K24" s="34"/>
       <c r="L24" s="34"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>0.73</v>
       </c>
@@ -12246,7 +12259,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>0.73</v>
       </c>
@@ -12254,12 +12267,12 @@
         <v>0.77</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>0.75</v>
       </c>
@@ -12270,7 +12283,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="20" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>0.79</v>
       </c>
@@ -12278,7 +12291,7 @@
         <v>0.79800000000000004</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -12287,7 +12300,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>0.79</v>
       </c>
@@ -12302,7 +12315,7 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>0.79</v>
       </c>
@@ -12322,7 +12335,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>0.73</v>
       </c>
@@ -12342,7 +12355,7 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>0.69</v>
       </c>
@@ -12362,7 +12375,7 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>0.79</v>
       </c>
@@ -12381,7 +12394,7 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>0.73</v>
       </c>
@@ -12401,7 +12414,7 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>0.76</v>
       </c>
@@ -12421,7 +12434,7 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>0.69</v>
       </c>
@@ -12436,7 +12449,7 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>0.76</v>
       </c>
@@ -12451,17 +12464,17 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>0.75</v>
       </c>
       <c r="B38" s="1">
         <v>0.78</v>
       </c>
-      <c r="F38" s="48" t="s">
+      <c r="F38" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="G38" s="48" t="s">
+      <c r="G38" s="43" t="s">
         <v>1</v>
       </c>
       <c r="H38" s="1" t="s">
@@ -12476,14 +12489,14 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>0.73</v>
       </c>
       <c r="B39" s="1">
         <v>0.80200000000000005</v>
       </c>
-      <c r="F39" s="51">
+      <c r="F39" s="46">
         <f>I10</f>
         <v>0.74460000000000004</v>
       </c>
@@ -12508,14 +12521,14 @@
       </c>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>0.76</v>
       </c>
       <c r="B40" s="1">
         <v>0.78400000000000003</v>
       </c>
-      <c r="F40" s="51"/>
+      <c r="F40" s="46"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -12523,7 +12536,7 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>0.79</v>
       </c>
@@ -12536,11 +12549,11 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>0.75</v>
       </c>
@@ -12548,7 +12561,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>0.75</v>
       </c>
@@ -12556,7 +12569,7 @@
         <v>0.80800000000000005</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>0.73</v>
       </c>
@@ -12564,7 +12577,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>0.71</v>
       </c>
@@ -12572,7 +12585,7 @@
         <v>0.77600000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>0.74</v>
       </c>
@@ -12580,7 +12593,7 @@
         <v>0.79600000000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>0.74</v>
       </c>
@@ -12588,7 +12601,7 @@
         <v>0.76200000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>0.73</v>
       </c>
@@ -12596,7 +12609,7 @@
         <v>0.79600000000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>0.76</v>
       </c>
@@ -12604,7 +12617,7 @@
         <v>0.73199999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>0.78</v>
       </c>
@@ -12612,7 +12625,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>0.72</v>
       </c>
@@ -12620,207 +12633,207 @@
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
     </row>
@@ -12837,15 +12850,15 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>219075</xdr:colOff>
+                <xdr:colOff>215900</xdr:colOff>
                 <xdr:row>32</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>25400</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>390525</xdr:colOff>
+                <xdr:colOff>393700</xdr:colOff>
                 <xdr:row>35</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>12700</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>

--- a/Experiment/Experiment 50 repeticiones.xlsx
+++ b/Experiment/Experiment 50 repeticiones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastianmorales/Desktop/ProjectX/Experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC81F29-9653-3642-9217-9C229B863772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9950D93-612C-474B-94D8-2031392839E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6773,7 +6773,7 @@
   <dimension ref="B2:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -7192,6 +7192,7 @@
     <mergeCell ref="B25:L27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
